--- a/ticket_feedback_dashboard/processed_output/feedback_with_topics_and_sentiment.xlsx
+++ b/ticket_feedback_dashboard/processed_output/feedback_with_topics_and_sentiment.xlsx
@@ -1,15 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\006917\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3207A-3212-4ADE-82EA-C246FAB4CD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$76</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1167,9 +1189,6 @@
     <t>The issue is not resolved and saying that it is a Microsoft issue is not a resolution.  I am having significant issues and not able to perform my job due to the issues.  Please contact me.</t>
   </si>
   <si>
-    <t>Unclear</t>
-  </si>
-  <si>
     <t>Strong Negative</t>
   </si>
   <si>
@@ -1192,16 +1211,19 @@
   </si>
   <si>
     <t>Jul,25</t>
+  </si>
+  <si>
+    <t>mild Negative</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1253,25 +1275,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1309,7 +1345,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1343,6 +1379,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1377,9 +1414,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1552,14 +1590,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R79" sqref="R79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="140" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1666,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1624,7 +1685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45839</v>
       </c>
@@ -1664,26 +1725,26 @@
       <c r="N2" t="s">
         <v>301</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="4" t="s">
         <v>306</v>
       </c>
       <c r="Q2" t="s">
         <v>297</v>
       </c>
       <c r="R2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S2">
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45839</v>
       </c>
@@ -1720,23 +1781,23 @@
       <c r="N3" t="s">
         <v>302</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="4" t="s">
         <v>307</v>
       </c>
       <c r="R3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45839</v>
       </c>
@@ -1776,26 +1837,26 @@
       <c r="N4" t="s">
         <v>303</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="4" t="s">
         <v>308</v>
       </c>
       <c r="Q4" t="s">
         <v>299</v>
       </c>
       <c r="R4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45839</v>
       </c>
@@ -1835,7 +1896,7 @@
       <c r="N5" t="s">
         <v>303</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="4" t="s">
         <v>309</v>
       </c>
       <c r="Q5" t="s">
@@ -1848,13 +1909,13 @@
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U5" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45839</v>
       </c>
@@ -1901,19 +1962,19 @@
         <v>297</v>
       </c>
       <c r="R6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S6">
         <v>2</v>
       </c>
       <c r="T6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U6" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45839</v>
       </c>
@@ -1953,26 +2014,26 @@
       <c r="N7" t="s">
         <v>303</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="4" t="s">
         <v>311</v>
       </c>
       <c r="Q7" t="s">
         <v>297</v>
       </c>
       <c r="R7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S7">
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U7" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45840</v>
       </c>
@@ -2012,26 +2073,26 @@
       <c r="N8" t="s">
         <v>304</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="4" t="s">
         <v>312</v>
       </c>
       <c r="Q8" t="s">
         <v>297</v>
       </c>
       <c r="R8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U8" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45840</v>
       </c>
@@ -2071,26 +2132,26 @@
       <c r="N9" t="s">
         <v>303</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="4" t="s">
         <v>313</v>
       </c>
       <c r="Q9" t="s">
         <v>297</v>
       </c>
       <c r="R9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U9" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45840</v>
       </c>
@@ -2137,19 +2198,19 @@
         <v>300</v>
       </c>
       <c r="R10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S10">
         <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U10" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45841</v>
       </c>
@@ -2189,26 +2250,26 @@
       <c r="N11" t="s">
         <v>305</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="4" t="s">
         <v>315</v>
       </c>
       <c r="Q11" t="s">
         <v>297</v>
       </c>
       <c r="R11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45841</v>
       </c>
@@ -2248,26 +2309,26 @@
       <c r="N12" t="s">
         <v>305</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="4" t="s">
         <v>316</v>
       </c>
       <c r="Q12" t="s">
         <v>297</v>
       </c>
       <c r="R12" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45842</v>
       </c>
@@ -2307,26 +2368,26 @@
       <c r="N13" t="s">
         <v>301</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="4" t="s">
         <v>317</v>
       </c>
       <c r="Q13" t="s">
         <v>297</v>
       </c>
       <c r="R13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45845</v>
       </c>
@@ -2366,26 +2427,26 @@
       <c r="N14" t="s">
         <v>302</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="4" t="s">
         <v>318</v>
       </c>
       <c r="Q14" t="s">
         <v>297</v>
       </c>
       <c r="R14" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45845</v>
       </c>
@@ -2425,26 +2486,26 @@
       <c r="N15" t="s">
         <v>302</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="4" t="s">
         <v>319</v>
       </c>
       <c r="Q15" t="s">
         <v>297</v>
       </c>
       <c r="R15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S15">
         <v>2</v>
       </c>
       <c r="T15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45845</v>
       </c>
@@ -2491,19 +2552,19 @@
         <v>297</v>
       </c>
       <c r="R16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S16">
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45846</v>
       </c>
@@ -2550,19 +2611,19 @@
         <v>297</v>
       </c>
       <c r="R17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S17">
         <v>2</v>
       </c>
       <c r="T17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U17" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45846</v>
       </c>
@@ -2602,26 +2663,26 @@
       <c r="N18" t="s">
         <v>304</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="4" t="s">
         <v>322</v>
       </c>
       <c r="Q18" t="s">
         <v>297</v>
       </c>
       <c r="R18" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S18">
         <v>1</v>
       </c>
       <c r="T18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45847</v>
       </c>
@@ -2661,26 +2722,26 @@
       <c r="N19" t="s">
         <v>301</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="4" t="s">
         <v>323</v>
       </c>
       <c r="Q19" t="s">
         <v>297</v>
       </c>
       <c r="R19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U19" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45847</v>
       </c>
@@ -2720,7 +2781,7 @@
       <c r="N20" t="s">
         <v>303</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="4" t="s">
         <v>324</v>
       </c>
       <c r="Q20" t="s">
@@ -2733,13 +2794,13 @@
         <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U20" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45847</v>
       </c>
@@ -2779,7 +2840,7 @@
       <c r="N21" t="s">
         <v>303</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="4" t="s">
         <v>325</v>
       </c>
       <c r="Q21" t="s">
@@ -2792,13 +2853,13 @@
         <v>3</v>
       </c>
       <c r="T21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U21" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45847</v>
       </c>
@@ -2845,19 +2906,19 @@
         <v>297</v>
       </c>
       <c r="R22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S22">
         <v>2</v>
       </c>
       <c r="T22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U22" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45848</v>
       </c>
@@ -2897,26 +2958,26 @@
       <c r="N23" t="s">
         <v>303</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="4" t="s">
         <v>327</v>
       </c>
       <c r="Q23" t="s">
         <v>298</v>
       </c>
       <c r="R23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S23">
         <v>3</v>
       </c>
       <c r="T23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U23" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45848</v>
       </c>
@@ -2956,7 +3017,7 @@
       <c r="N24" t="s">
         <v>303</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="4" t="s">
         <v>328</v>
       </c>
       <c r="Q24" t="s">
@@ -2969,13 +3030,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U24" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45848</v>
       </c>
@@ -3015,26 +3076,26 @@
       <c r="N25" t="s">
         <v>304</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="4" t="s">
         <v>329</v>
       </c>
       <c r="Q25" t="s">
         <v>297</v>
       </c>
       <c r="R25" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U25" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45848</v>
       </c>
@@ -3081,19 +3142,19 @@
         <v>297</v>
       </c>
       <c r="R26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45849</v>
       </c>
@@ -3140,19 +3201,19 @@
         <v>297</v>
       </c>
       <c r="R27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U27" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45849</v>
       </c>
@@ -3192,26 +3253,26 @@
       <c r="N28" t="s">
         <v>303</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="4" t="s">
         <v>332</v>
       </c>
       <c r="Q28" t="s">
         <v>297</v>
       </c>
       <c r="R28" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45849</v>
       </c>
@@ -3251,26 +3312,26 @@
       <c r="N29" t="s">
         <v>304</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="4" t="s">
         <v>333</v>
       </c>
       <c r="Q29" t="s">
         <v>297</v>
       </c>
       <c r="R29" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S29">
         <v>2</v>
       </c>
       <c r="T29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U29" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45849</v>
       </c>
@@ -3310,26 +3371,26 @@
       <c r="N30" t="s">
         <v>303</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="4" t="s">
         <v>334</v>
       </c>
       <c r="Q30" t="s">
         <v>297</v>
       </c>
       <c r="R30" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U30" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45850</v>
       </c>
@@ -3376,19 +3437,19 @@
         <v>297</v>
       </c>
       <c r="R31" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S31">
         <v>2</v>
       </c>
       <c r="T31" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U31" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45850</v>
       </c>
@@ -3428,26 +3489,26 @@
       <c r="N32" t="s">
         <v>302</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="4" t="s">
         <v>336</v>
       </c>
       <c r="Q32" t="s">
         <v>297</v>
       </c>
       <c r="R32" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U32" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45852</v>
       </c>
@@ -3487,26 +3548,26 @@
       <c r="N33" t="s">
         <v>304</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="4" t="s">
         <v>337</v>
       </c>
       <c r="Q33" t="s">
         <v>297</v>
       </c>
       <c r="R33" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S33">
         <v>1</v>
       </c>
       <c r="T33" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U33" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45852</v>
       </c>
@@ -3553,19 +3614,19 @@
         <v>297</v>
       </c>
       <c r="R34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S34">
         <v>3</v>
       </c>
       <c r="T34" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45853</v>
       </c>
@@ -3605,26 +3666,26 @@
       <c r="N35" t="s">
         <v>303</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="4" t="s">
         <v>339</v>
       </c>
       <c r="Q35" t="s">
         <v>297</v>
       </c>
       <c r="R35" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U35" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45853</v>
       </c>
@@ -3671,19 +3732,19 @@
         <v>297</v>
       </c>
       <c r="R36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45853</v>
       </c>
@@ -3723,7 +3784,7 @@
       <c r="N37" t="s">
         <v>301</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="4" t="s">
         <v>341</v>
       </c>
       <c r="Q37" t="s">
@@ -3736,13 +3797,13 @@
         <v>1</v>
       </c>
       <c r="T37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U37" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45853</v>
       </c>
@@ -3782,26 +3843,26 @@
       <c r="N38" t="s">
         <v>303</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="4" t="s">
         <v>342</v>
       </c>
       <c r="Q38" t="s">
         <v>297</v>
       </c>
       <c r="R38" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S38">
         <v>2</v>
       </c>
       <c r="T38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45854</v>
       </c>
@@ -3841,7 +3902,7 @@
       <c r="N39" t="s">
         <v>302</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="4" t="s">
         <v>343</v>
       </c>
       <c r="Q39" t="s">
@@ -3854,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U39" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45855</v>
       </c>
@@ -3900,7 +3961,7 @@
       <c r="N40" t="s">
         <v>303</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="4" t="s">
         <v>344</v>
       </c>
       <c r="Q40" t="s">
@@ -3913,13 +3974,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U40" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45855</v>
       </c>
@@ -3966,19 +4027,19 @@
         <v>297</v>
       </c>
       <c r="R41" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U41" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45855</v>
       </c>
@@ -4018,26 +4079,26 @@
       <c r="N42" t="s">
         <v>302</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="4" t="s">
         <v>346</v>
       </c>
       <c r="Q42" t="s">
         <v>297</v>
       </c>
       <c r="R42" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="S42">
         <v>3</v>
       </c>
       <c r="T42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U42" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45855</v>
       </c>
@@ -4077,7 +4138,7 @@
       <c r="N43" t="s">
         <v>303</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="4" t="s">
         <v>347</v>
       </c>
       <c r="Q43" t="s">
@@ -4090,13 +4151,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U43" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45855</v>
       </c>
@@ -4136,26 +4197,26 @@
       <c r="N44" t="s">
         <v>301</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="4" t="s">
         <v>348</v>
       </c>
       <c r="Q44" t="s">
         <v>297</v>
       </c>
       <c r="R44" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S44">
         <v>2</v>
       </c>
       <c r="T44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U44" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45855</v>
       </c>
@@ -4202,19 +4263,19 @@
         <v>297</v>
       </c>
       <c r="R45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U45" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45855</v>
       </c>
@@ -4254,7 +4315,7 @@
       <c r="N46" t="s">
         <v>303</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="4" t="s">
         <v>350</v>
       </c>
       <c r="Q46" t="s">
@@ -4267,13 +4328,13 @@
         <v>1</v>
       </c>
       <c r="T46" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U46" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45855</v>
       </c>
@@ -4313,7 +4374,7 @@
       <c r="N47" t="s">
         <v>303</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="4" t="s">
         <v>351</v>
       </c>
       <c r="Q47" t="s">
@@ -4326,13 +4387,13 @@
         <v>1</v>
       </c>
       <c r="T47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U47" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45856</v>
       </c>
@@ -4372,26 +4433,26 @@
       <c r="N48" t="s">
         <v>304</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="4" t="s">
         <v>352</v>
       </c>
       <c r="Q48" t="s">
         <v>300</v>
       </c>
       <c r="R48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S48">
         <v>2</v>
       </c>
       <c r="T48" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U48" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45856</v>
       </c>
@@ -4431,26 +4492,26 @@
       <c r="N49" t="s">
         <v>303</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="4" t="s">
         <v>353</v>
       </c>
       <c r="Q49" t="s">
         <v>297</v>
       </c>
       <c r="R49" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U49" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45856</v>
       </c>
@@ -4497,19 +4558,19 @@
         <v>297</v>
       </c>
       <c r="R50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S50">
         <v>1</v>
       </c>
       <c r="T50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U50" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45860</v>
       </c>
@@ -4556,19 +4617,19 @@
         <v>297</v>
       </c>
       <c r="R51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S51">
         <v>1</v>
       </c>
       <c r="T51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U51" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45860</v>
       </c>
@@ -4608,26 +4669,26 @@
       <c r="N52" t="s">
         <v>303</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="4" t="s">
         <v>356</v>
       </c>
       <c r="Q52" t="s">
         <v>297</v>
       </c>
       <c r="R52" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U52" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45860</v>
       </c>
@@ -4674,19 +4735,19 @@
         <v>297</v>
       </c>
       <c r="R53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S53">
         <v>2</v>
       </c>
       <c r="T53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U53" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45860</v>
       </c>
@@ -4733,19 +4794,19 @@
         <v>297</v>
       </c>
       <c r="R54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U54" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45861</v>
       </c>
@@ -4785,26 +4846,26 @@
       <c r="N55" t="s">
         <v>303</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="4" t="s">
         <v>359</v>
       </c>
       <c r="Q55" t="s">
         <v>297</v>
       </c>
       <c r="R55" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S55">
         <v>1</v>
       </c>
       <c r="T55" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U55" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45861</v>
       </c>
@@ -4851,19 +4912,19 @@
         <v>297</v>
       </c>
       <c r="R56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U56" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45861</v>
       </c>
@@ -4903,26 +4964,26 @@
       <c r="N57" t="s">
         <v>304</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="4" t="s">
         <v>361</v>
       </c>
       <c r="Q57" t="s">
         <v>297</v>
       </c>
       <c r="R57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U57" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45861</v>
       </c>
@@ -4962,7 +5023,7 @@
       <c r="N58" t="s">
         <v>303</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="4" t="s">
         <v>362</v>
       </c>
       <c r="Q58" t="s">
@@ -4975,13 +5036,13 @@
         <v>2</v>
       </c>
       <c r="T58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U58" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45861</v>
       </c>
@@ -5028,19 +5089,19 @@
         <v>297</v>
       </c>
       <c r="R59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="S59">
         <v>3</v>
       </c>
       <c r="T59" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U59" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45861</v>
       </c>
@@ -5080,26 +5141,26 @@
       <c r="N60" t="s">
         <v>304</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="4" t="s">
         <v>364</v>
       </c>
       <c r="Q60" t="s">
         <v>297</v>
       </c>
       <c r="R60" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U60" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45861</v>
       </c>
@@ -5139,26 +5200,26 @@
       <c r="N61" t="s">
         <v>303</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="4" t="s">
         <v>365</v>
       </c>
       <c r="Q61" t="s">
         <v>297</v>
       </c>
       <c r="R61" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S61">
         <v>1</v>
       </c>
       <c r="T61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U61" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45861</v>
       </c>
@@ -5198,26 +5259,26 @@
       <c r="N62" t="s">
         <v>301</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="4" t="s">
         <v>366</v>
       </c>
       <c r="Q62" t="s">
         <v>297</v>
       </c>
       <c r="R62" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S62">
         <v>1</v>
       </c>
       <c r="T62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U62" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45861</v>
       </c>
@@ -5257,26 +5318,26 @@
       <c r="N63" t="s">
         <v>301</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="4" t="s">
         <v>367</v>
       </c>
       <c r="Q63" t="s">
         <v>297</v>
       </c>
       <c r="R63" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S63">
         <v>1</v>
       </c>
       <c r="T63" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U63" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45862</v>
       </c>
@@ -5323,19 +5384,19 @@
         <v>297</v>
       </c>
       <c r="R64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S64">
         <v>1</v>
       </c>
       <c r="T64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U64" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45862</v>
       </c>
@@ -5382,19 +5443,19 @@
         <v>297</v>
       </c>
       <c r="R65" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S65">
         <v>1</v>
       </c>
       <c r="T65" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U65" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45863</v>
       </c>
@@ -5434,7 +5495,7 @@
       <c r="N66" t="s">
         <v>303</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="4" t="s">
         <v>370</v>
       </c>
       <c r="Q66" t="s">
@@ -5447,13 +5508,13 @@
         <v>3</v>
       </c>
       <c r="T66" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45863</v>
       </c>
@@ -5493,7 +5554,7 @@
       <c r="N67" t="s">
         <v>301</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="4" t="s">
         <v>371</v>
       </c>
       <c r="Q67" t="s">
@@ -5506,13 +5567,13 @@
         <v>3</v>
       </c>
       <c r="T67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U67" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45863</v>
       </c>
@@ -5552,26 +5613,26 @@
       <c r="N68" t="s">
         <v>303</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="4" t="s">
         <v>372</v>
       </c>
       <c r="Q68" t="s">
         <v>297</v>
       </c>
       <c r="R68" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S68">
         <v>1</v>
       </c>
       <c r="T68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U68" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45863</v>
       </c>
@@ -5611,26 +5672,26 @@
       <c r="N69" t="s">
         <v>301</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="4" t="s">
         <v>373</v>
       </c>
       <c r="Q69" t="s">
         <v>297</v>
       </c>
       <c r="R69" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S69">
         <v>1</v>
       </c>
       <c r="T69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U69" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45866</v>
       </c>
@@ -5677,19 +5738,19 @@
         <v>297</v>
       </c>
       <c r="R70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="S70">
         <v>1</v>
       </c>
       <c r="T70" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U70" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45866</v>
       </c>
@@ -5729,7 +5790,7 @@
       <c r="N71" t="s">
         <v>301</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="4" t="s">
         <v>375</v>
       </c>
       <c r="Q71" t="s">
@@ -5742,13 +5803,13 @@
         <v>1</v>
       </c>
       <c r="T71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U71" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45866</v>
       </c>
@@ -5795,19 +5856,19 @@
         <v>297</v>
       </c>
       <c r="R72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="S72">
         <v>2</v>
       </c>
       <c r="T72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U72" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45866</v>
       </c>
@@ -5847,26 +5908,26 @@
       <c r="N73" t="s">
         <v>304</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="4" t="s">
         <v>377</v>
       </c>
       <c r="Q73" t="s">
         <v>297</v>
       </c>
       <c r="R73" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S73">
         <v>1</v>
       </c>
       <c r="T73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="U73" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45867</v>
       </c>
@@ -5906,26 +5967,26 @@
       <c r="N74" t="s">
         <v>301</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="4" t="s">
         <v>378</v>
       </c>
       <c r="Q74" t="s">
         <v>297</v>
       </c>
       <c r="R74" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S74">
         <v>2</v>
       </c>
       <c r="T74" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U74" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45867</v>
       </c>
@@ -5965,26 +6026,26 @@
       <c r="N75" t="s">
         <v>302</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="4" t="s">
         <v>379</v>
       </c>
       <c r="Q75" t="s">
         <v>297</v>
       </c>
       <c r="R75" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U75" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45868</v>
       </c>
@@ -6024,26 +6085,27 @@
       <c r="N76" t="s">
         <v>303</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="4" t="s">
         <v>380</v>
       </c>
       <c r="Q76" t="s">
         <v>299</v>
       </c>
       <c r="R76" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U76" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>